--- a/biology/Médecine/Corpus_Medicorum_Graecorum/Corpus_Medicorum_Graecorum.xlsx
+++ b/biology/Médecine/Corpus_Medicorum_Graecorum/Corpus_Medicorum_Graecorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Corpus Medicorum Graecorum (CMG) est un recueil de textes médicaux écrits en grec ancien par des médecins ou des scientifiques de l’Antiquité. Instauré en 1907, ce projet est en 2009 géré par la Berlin-Brandenburgische Akademie der Wissenschaften.
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">http://cmg.bbaw.de/Startseite.html
  Portail de la Grèce antique   Portail de la médecine                    </t>
